--- a/dihadron/expdata/3000.xlsx
+++ b/dihadron/expdata/3000.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8D67D0-F8F0-8B4D-BC4C-3E94FE02B812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45EAADB-AF34-9349-A824-4BB4747ED528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30740" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>col</t>
   </si>
@@ -98,6 +98,24 @@
   </si>
   <si>
     <t>Ebeam</t>
+  </si>
+  <si>
+    <t>Q2min</t>
+  </si>
+  <si>
+    <t>W2min</t>
+  </si>
+  <si>
+    <t>ymin</t>
+  </si>
+  <si>
+    <t>ymax</t>
+  </si>
+  <si>
+    <t>Mmin</t>
+  </si>
+  <si>
+    <t>Mmax</t>
   </si>
 </sst>
 </file>
@@ -429,18 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="15" width="10.83203125" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,43 +478,61 @@
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -516,45 +552,62 @@
         <v>27.6</v>
       </c>
       <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="N2" s="1">
         <v>0.04</v>
       </c>
-      <c r="I2" s="1">
-        <f>(G2+H2)/2</f>
-        <v>3.15E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="S2" s="1">
         <v>0.7</v>
       </c>
-      <c r="N2" s="1">
+      <c r="T2" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O2" s="1">
+      <c r="U2" s="1">
         <v>0.01</v>
       </c>
-      <c r="P2" s="1">
+      <c r="V2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="W2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="R2">
-        <f>0.081*N2</f>
+      <c r="X2">
+        <f>0.081*T2</f>
         <v>1.2149999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -574,45 +627,62 @@
         <v>27.6</v>
       </c>
       <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.04</v>
       </c>
-      <c r="H3" s="1">
+      <c r="N3" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I5" si="0">(G3+H3)/2</f>
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="O3" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="R3" s="1">
         <v>0.45</v>
       </c>
-      <c r="M3" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="S3" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="T3" s="1">
         <v>2E-3</v>
       </c>
-      <c r="O3" s="1">
+      <c r="U3" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P3" s="1">
+      <c r="V3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="W3" s="1">
         <v>0</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R5" si="1">0.081*N3</f>
+      <c r="X3">
+        <f t="shared" ref="X3:X5" si="0">0.081*T3</f>
         <v>1.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -632,45 +702,62 @@
         <v>27.6</v>
       </c>
       <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="N4" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="O4" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="P4" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="1"/>
         <v>2.8350000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -690,583 +777,600 @@
         <v>27.6</v>
       </c>
       <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="N5" s="1">
         <v>0.4</v>
       </c>
-      <c r="I5" s="1">
+      <c r="O5" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="0"/>
-        <v>0.24250000000000002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
         <v>1.6200000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dihadron/expdata/3000.xlsx
+++ b/dihadron/expdata/3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45EAADB-AF34-9349-A824-4BB4747ED528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9E9BCA-E2D9-8740-A352-8C61D8E34D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -726,7 +726,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="O4" s="1">
-        <v>6.7999999999999996E-3</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="P4" s="1">
         <v>2.1800000000000002</v>
